--- a/tabular/extension/primate/hiv-reference-data.xlsx
+++ b/tabular/extension/primate/hiv-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/primate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-Primates/tabular/extension/primate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607E6F2-593D-0A4E-B2A7-081CEE6DFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE25981A-27C7-374A-9C40-48FC1C8159AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="121">
   <si>
     <t>Accession</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>host_common_name</t>
+  </si>
+  <si>
+    <t>genotype</t>
   </si>
 </sst>
 </file>
@@ -574,9 +577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -614,7 +617,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -720,7 +723,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -862,7 +865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,22 +873,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:J20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -893,189 +896,207 @@
         <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>2012</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1983</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1981</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>23170185</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1990</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>2006</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>17451347</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -1083,427 +1104,469 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>1997</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>1375062</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>2005</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>24324545</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>1999</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>15585101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>2003</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>26699702</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>2008</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>26699702</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>2004</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>26699702</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>1995</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>9734396</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>2005</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>26699702</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>2009</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>22505456</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>22505456</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>17494082</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>2012</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>25733890</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>2013</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>25733890</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
     <sortCondition ref="B2:B20"/>
-    <sortCondition ref="C2:C20"/>
     <sortCondition ref="D2:D20"/>
+    <sortCondition ref="E2:E20"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/extension/primate/hiv-reference-data.xlsx
+++ b/tabular/extension/primate/hiv-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-Primates/tabular/extension/primate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE25981A-27C7-374A-9C40-48FC1C8159AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792C9CA-25A3-6144-B76F-2F6E28C03A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
